--- a/results/20250226_215252/benchmark_WT(R).xlsx
+++ b/results/20250226_215252/benchmark_WT(R).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,41 @@
           <t>Epoch 430</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 440</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 450</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 460</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 470</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 480</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 490</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 500</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -793,6 +828,27 @@
       <c r="AS2" t="n">
         <v>5250.48006439209</v>
       </c>
+      <c r="AT2" t="n">
+        <v>5231.520070648194</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>5270.160048675538</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>5280.960036468507</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5278.320043945313</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>5278.080039215089</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>5221.440034484864</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>5228.880070495606</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -932,6 +988,27 @@
       <c r="AS3" t="n">
         <v>15492.18012008667</v>
       </c>
+      <c r="AT3" t="n">
+        <v>15443.40018844604</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>15283.68007278442</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>15324.06015701294</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>15548.04014968872</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15675.36010055542</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>15156.18015365601</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>15547.08015823364</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1071,6 +1148,27 @@
       <c r="AS4" t="n">
         <v>38431.24014587403</v>
       </c>
+      <c r="AT4" t="n">
+        <v>38764.64019622803</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>37923.38013992309</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>38150.50025405884</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>38140.52044372559</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>38510.92030792237</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>38130.06038818359</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>37626.08028030396</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1210,6 +1308,27 @@
       <c r="AS5" t="n">
         <v>65441.16015396119</v>
       </c>
+      <c r="AT5" t="n">
+        <v>65446.52035217285</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>65457.93991775513</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>65368.0001335144</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>64222.04011306763</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>65127.48012619019</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>64036.52028503418</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>63860.22026367188</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1349,6 +1468,27 @@
       <c r="AS6" t="n">
         <v>90682.10063095094</v>
       </c>
+      <c r="AT6" t="n">
+        <v>91097.5002532959</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>90008.8004272461</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>90543.56051406861</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>89431.30021133424</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>91013.1803504944</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>89490.04033737183</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>90143.50030364991</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1488,6 +1628,27 @@
       <c r="AS7" t="n">
         <v>119036.1005508423</v>
       </c>
+      <c r="AT7" t="n">
+        <v>119553.0604873657</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>117764.0603538513</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>117726.8603027344</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>117397.5202636719</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>118679.16042099</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>117323.5003410339</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>117981.7601287842</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1627,6 +1788,27 @@
       <c r="AS8" t="n">
         <v>7542.480096435547</v>
       </c>
+      <c r="AT8" t="n">
+        <v>7584.720103454591</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7508.640077209473</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>7667.520070648194</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7588.800078582764</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>7614.720065307618</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>7484.160074615479</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>7612.080072021485</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1766,6 +1948,27 @@
       <c r="AS9" t="n">
         <v>23810.88009719849</v>
       </c>
+      <c r="AT9" t="n">
+        <v>23764.7401512146</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>23865.84004364014</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>23569.3801322937</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>23712.90006637573</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>23383.80006408691</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23427.48010025025</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>23780.94020233155</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1905,6 +2108,27 @@
       <c r="AS10" t="n">
         <v>60166.08037796021</v>
       </c>
+      <c r="AT10" t="n">
+        <v>60721.76030960083</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>60302.04026794434</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>59587.0602470398</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>59725.74027175904</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>59790.62036972046</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>58685.0801109314</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>59944.36027145386</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2043,6 +2267,27 @@
       </c>
       <c r="AS11" t="n">
         <v>96671.8205871582</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>98444.20030822755</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>97197.12054214478</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>98076.40031280518</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>97512.98018035889</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>97896.46038360597</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>96371.32008209229</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>96751.78028640748</v>
       </c>
     </row>
   </sheetData>
